--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Lamb1-Itgb1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Lamb1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.8524358352506</v>
+        <v>45.113311</v>
       </c>
       <c r="H2">
-        <v>23.8524358352506</v>
+        <v>135.339933</v>
       </c>
       <c r="I2">
-        <v>0.2060080683867583</v>
+        <v>0.3130631765642909</v>
       </c>
       <c r="J2">
-        <v>0.2060080683867583</v>
+        <v>0.3130631765642908</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N2">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q2">
-        <v>1741.916754697054</v>
+        <v>4276.735160916662</v>
       </c>
       <c r="R2">
-        <v>1741.916754697054</v>
+        <v>38490.61644824995</v>
       </c>
       <c r="S2">
-        <v>0.0285450977570496</v>
+        <v>0.05265608586488889</v>
       </c>
       <c r="T2">
-        <v>0.0285450977570496</v>
+        <v>0.05265608586488889</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.8524358352506</v>
+        <v>45.113311</v>
       </c>
       <c r="H3">
-        <v>23.8524358352506</v>
+        <v>135.339933</v>
       </c>
       <c r="I3">
-        <v>0.2060080683867583</v>
+        <v>0.3130631765642909</v>
       </c>
       <c r="J3">
-        <v>0.2060080683867583</v>
+        <v>0.3130631765642908</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N3">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q3">
-        <v>3455.971483156693</v>
+        <v>6570.364088445122</v>
       </c>
       <c r="R3">
-        <v>3455.971483156693</v>
+        <v>59133.2767960061</v>
       </c>
       <c r="S3">
-        <v>0.05663361556530892</v>
+        <v>0.08089573999494389</v>
       </c>
       <c r="T3">
-        <v>0.05663361556530892</v>
+        <v>0.0808957399949439</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.8524358352506</v>
+        <v>45.113311</v>
       </c>
       <c r="H4">
-        <v>23.8524358352506</v>
+        <v>135.339933</v>
       </c>
       <c r="I4">
-        <v>0.2060080683867583</v>
+        <v>0.3130631765642909</v>
       </c>
       <c r="J4">
-        <v>0.2060080683867583</v>
+        <v>0.3130631765642908</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N4">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q4">
-        <v>1622.436936012192</v>
+        <v>3283.164998012211</v>
       </c>
       <c r="R4">
-        <v>1622.436936012192</v>
+        <v>29548.4849821099</v>
       </c>
       <c r="S4">
-        <v>0.02658716084923961</v>
+        <v>0.04042303568941933</v>
       </c>
       <c r="T4">
-        <v>0.02658716084923961</v>
+        <v>0.04042303568941932</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.8524358352506</v>
+        <v>45.113311</v>
       </c>
       <c r="H5">
-        <v>23.8524358352506</v>
+        <v>135.339933</v>
       </c>
       <c r="I5">
-        <v>0.2060080683867583</v>
+        <v>0.3130631765642909</v>
       </c>
       <c r="J5">
-        <v>0.2060080683867583</v>
+        <v>0.3130631765642908</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N5">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q5">
-        <v>1821.048918969569</v>
+        <v>3446.030035754804</v>
       </c>
       <c r="R5">
-        <v>1821.048918969569</v>
+        <v>31014.27032179324</v>
       </c>
       <c r="S5">
-        <v>0.02984185052023125</v>
+        <v>0.04242826516683317</v>
       </c>
       <c r="T5">
-        <v>0.02984185052023125</v>
+        <v>0.04242826516683317</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.8524358352506</v>
+        <v>45.113311</v>
       </c>
       <c r="H6">
-        <v>23.8524358352506</v>
+        <v>135.339933</v>
       </c>
       <c r="I6">
-        <v>0.2060080683867583</v>
+        <v>0.3130631765642909</v>
       </c>
       <c r="J6">
-        <v>0.2060080683867583</v>
+        <v>0.3130631765642908</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N6">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O6">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P6">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q6">
-        <v>1359.868354310507</v>
+        <v>2625.003084239546</v>
       </c>
       <c r="R6">
-        <v>1359.868354310507</v>
+        <v>23625.02775815591</v>
       </c>
       <c r="S6">
-        <v>0.02228440308978057</v>
+        <v>0.03231960423045919</v>
       </c>
       <c r="T6">
-        <v>0.02228440308978057</v>
+        <v>0.03231960423045919</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.8524358352506</v>
+        <v>45.113311</v>
       </c>
       <c r="H7">
-        <v>23.8524358352506</v>
+        <v>135.339933</v>
       </c>
       <c r="I7">
-        <v>0.2060080683867583</v>
+        <v>0.3130631765642909</v>
       </c>
       <c r="J7">
-        <v>0.2060080683867583</v>
+        <v>0.3130631765642908</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N7">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q7">
-        <v>2570.054697459075</v>
+        <v>5225.740605720642</v>
       </c>
       <c r="R7">
-        <v>2570.054697459075</v>
+        <v>47031.66545148577</v>
       </c>
       <c r="S7">
-        <v>0.0421159406051483</v>
+        <v>0.06434044561774645</v>
       </c>
       <c r="T7">
-        <v>0.0421159406051483</v>
+        <v>0.06434044561774643</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>62.049608048272</v>
+        <v>62.15125133333334</v>
       </c>
       <c r="H8">
-        <v>62.049608048272</v>
+        <v>186.453754</v>
       </c>
       <c r="I8">
-        <v>0.5359083653539851</v>
+        <v>0.431297719864963</v>
       </c>
       <c r="J8">
-        <v>0.5359083653539851</v>
+        <v>0.431297719864963</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N8">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q8">
-        <v>4531.413589296199</v>
+        <v>5891.929365863552</v>
       </c>
       <c r="R8">
-        <v>4531.413589296199</v>
+        <v>53027.36429277198</v>
       </c>
       <c r="S8">
-        <v>0.07425707545167899</v>
+        <v>0.07254270534074278</v>
       </c>
       <c r="T8">
-        <v>0.07425707545167899</v>
+        <v>0.07254270534074279</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>62.049608048272</v>
+        <v>62.15125133333334</v>
       </c>
       <c r="H9">
-        <v>62.049608048272</v>
+        <v>186.453754</v>
       </c>
       <c r="I9">
-        <v>0.5359083653539851</v>
+        <v>0.431297719864963</v>
       </c>
       <c r="J9">
-        <v>0.5359083653539851</v>
+        <v>0.431297719864963</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N9">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q9">
-        <v>8990.347041997402</v>
+        <v>9051.79293562515</v>
       </c>
       <c r="R9">
-        <v>8990.347041997402</v>
+        <v>81466.13642062637</v>
       </c>
       <c r="S9">
-        <v>0.1473264060935274</v>
+        <v>0.1114476272473493</v>
       </c>
       <c r="T9">
-        <v>0.1473264060935274</v>
+        <v>0.1114476272473493</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>62.049608048272</v>
+        <v>62.15125133333334</v>
       </c>
       <c r="H10">
-        <v>62.049608048272</v>
+        <v>186.453754</v>
       </c>
       <c r="I10">
-        <v>0.5359083653539851</v>
+        <v>0.431297719864963</v>
       </c>
       <c r="J10">
-        <v>0.5359083653539851</v>
+        <v>0.431297719864963</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N10">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q10">
-        <v>4220.599382718691</v>
+        <v>4523.117643931295</v>
       </c>
       <c r="R10">
-        <v>4220.599382718691</v>
+        <v>40708.05879538166</v>
       </c>
       <c r="S10">
-        <v>0.06916370810957673</v>
+        <v>0.0556896001446093</v>
       </c>
       <c r="T10">
-        <v>0.06916370810957673</v>
+        <v>0.0556896001446093</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>62.049608048272</v>
+        <v>62.15125133333334</v>
       </c>
       <c r="H11">
-        <v>62.049608048272</v>
+        <v>186.453754</v>
       </c>
       <c r="I11">
-        <v>0.5359083653539851</v>
+        <v>0.431297719864963</v>
       </c>
       <c r="J11">
-        <v>0.5359083653539851</v>
+        <v>0.431297719864963</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N11">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q11">
-        <v>4737.267608191179</v>
+        <v>4747.491906643972</v>
       </c>
       <c r="R11">
-        <v>4737.267608191179</v>
+        <v>42727.42715979576</v>
       </c>
       <c r="S11">
-        <v>0.07763044164566839</v>
+        <v>0.05845214446842886</v>
       </c>
       <c r="T11">
-        <v>0.07763044164566839</v>
+        <v>0.05845214446842887</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>62.049608048272</v>
+        <v>62.15125133333334</v>
       </c>
       <c r="H12">
-        <v>62.049608048272</v>
+        <v>186.453754</v>
       </c>
       <c r="I12">
-        <v>0.5359083653539851</v>
+        <v>0.431297719864963</v>
       </c>
       <c r="J12">
-        <v>0.5359083653539851</v>
+        <v>0.431297719864963</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N12">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O12">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P12">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q12">
-        <v>3537.554779102045</v>
+        <v>3616.387776090015</v>
       </c>
       <c r="R12">
-        <v>3537.554779102045</v>
+        <v>32547.48998481013</v>
       </c>
       <c r="S12">
-        <v>0.05797053545647064</v>
+        <v>0.04452574641486927</v>
       </c>
       <c r="T12">
-        <v>0.05797053545647064</v>
+        <v>0.04452574641486928</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>62.049608048272</v>
+        <v>62.15125133333334</v>
       </c>
       <c r="H13">
-        <v>62.049608048272</v>
+        <v>186.453754</v>
       </c>
       <c r="I13">
-        <v>0.5359083653539851</v>
+        <v>0.431297719864963</v>
       </c>
       <c r="J13">
-        <v>0.5359083653539851</v>
+        <v>0.431297719864963</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N13">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q13">
-        <v>6685.727518205079</v>
+        <v>7199.345616395773</v>
       </c>
       <c r="R13">
-        <v>6685.727518205079</v>
+        <v>64794.11054756196</v>
       </c>
       <c r="S13">
-        <v>0.1095601985970629</v>
+        <v>0.08863989624896353</v>
       </c>
       <c r="T13">
-        <v>0.1095601985970629</v>
+        <v>0.08863989624896353</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.18961655156833</v>
+        <v>0.04294166666666666</v>
       </c>
       <c r="H14">
-        <v>0.18961655156833</v>
+        <v>0.128825</v>
       </c>
       <c r="I14">
-        <v>0.001637675069856839</v>
+        <v>0.0002979930817676315</v>
       </c>
       <c r="J14">
-        <v>0.001637675069856839</v>
+        <v>0.0002979930817676315</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N14">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q14">
-        <v>13.8474850294585</v>
+        <v>4.070863601691666</v>
       </c>
       <c r="R14">
-        <v>13.8474850294585</v>
+        <v>36.637772415225</v>
       </c>
       <c r="S14">
-        <v>0.0002269211848323477</v>
+        <v>5.012135081775391E-05</v>
       </c>
       <c r="T14">
-        <v>0.0002269211848323477</v>
+        <v>5.012135081775392E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.18961655156833</v>
+        <v>0.04294166666666666</v>
       </c>
       <c r="H15">
-        <v>0.18961655156833</v>
+        <v>0.128825</v>
       </c>
       <c r="I15">
-        <v>0.001637675069856839</v>
+        <v>0.0002979930817676315</v>
       </c>
       <c r="J15">
-        <v>0.001637675069856839</v>
+        <v>0.0002979930817676315</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N15">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q15">
-        <v>27.47347899731911</v>
+        <v>6.25408284851111</v>
       </c>
       <c r="R15">
-        <v>27.47347899731911</v>
+        <v>56.2867456366</v>
       </c>
       <c r="S15">
-        <v>0.0004502127564879602</v>
+        <v>7.700161714169494E-05</v>
       </c>
       <c r="T15">
-        <v>0.0004502127564879602</v>
+        <v>7.700161714169496E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.18961655156833</v>
+        <v>0.04294166666666666</v>
       </c>
       <c r="H16">
-        <v>0.18961655156833</v>
+        <v>0.128825</v>
       </c>
       <c r="I16">
-        <v>0.001637675069856839</v>
+        <v>0.0002979930817676315</v>
       </c>
       <c r="J16">
-        <v>0.001637675069856839</v>
+        <v>0.0002979930817676315</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N16">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q16">
-        <v>12.89767213162643</v>
+        <v>3.125121473711111</v>
       </c>
       <c r="R16">
-        <v>12.89767213162643</v>
+        <v>28.1260932634</v>
       </c>
       <c r="S16">
-        <v>0.0002113564329884869</v>
+        <v>3.847716972557866E-05</v>
       </c>
       <c r="T16">
-        <v>0.0002113564329884869</v>
+        <v>3.847716972557866E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.18961655156833</v>
+        <v>0.04294166666666666</v>
       </c>
       <c r="H17">
-        <v>0.18961655156833</v>
+        <v>0.128825</v>
       </c>
       <c r="I17">
-        <v>0.001637675069856839</v>
+        <v>0.0002979930817676315</v>
       </c>
       <c r="J17">
-        <v>0.001637675069856839</v>
+        <v>0.0002979930817676315</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N17">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q17">
-        <v>14.47655152024087</v>
+        <v>3.280146587305556</v>
       </c>
       <c r="R17">
-        <v>14.47655152024087</v>
+        <v>29.52131928575</v>
       </c>
       <c r="S17">
-        <v>0.000237229808609372</v>
+        <v>4.038587236567704E-05</v>
       </c>
       <c r="T17">
-        <v>0.000237229808609372</v>
+        <v>4.038587236567705E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.18961655156833</v>
+        <v>0.04294166666666666</v>
       </c>
       <c r="H18">
-        <v>0.18961655156833</v>
+        <v>0.128825</v>
       </c>
       <c r="I18">
-        <v>0.001637675069856839</v>
+        <v>0.0002979930817676315</v>
       </c>
       <c r="J18">
-        <v>0.001637675069856839</v>
+        <v>0.0002979930817676315</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N18">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O18">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P18">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q18">
-        <v>10.8103654365642</v>
+        <v>2.498641862983333</v>
       </c>
       <c r="R18">
-        <v>10.8103654365642</v>
+        <v>22.48777676685</v>
       </c>
       <c r="S18">
-        <v>0.0001771513692282168</v>
+        <v>3.076381761611263E-05</v>
       </c>
       <c r="T18">
-        <v>0.0001771513692282168</v>
+        <v>3.076381761611264E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.18961655156833</v>
+        <v>0.04294166666666666</v>
       </c>
       <c r="H19">
-        <v>0.18961655156833</v>
+        <v>0.128825</v>
       </c>
       <c r="I19">
-        <v>0.001637675069856839</v>
+        <v>0.0002979930817676315</v>
       </c>
       <c r="J19">
-        <v>0.001637675069856839</v>
+        <v>0.0002979930817676315</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N19">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q19">
-        <v>20.43082360393477</v>
+        <v>4.97418624798611</v>
       </c>
       <c r="R19">
-        <v>20.43082360393477</v>
+        <v>44.76767623187499</v>
       </c>
       <c r="S19">
-        <v>0.0003348035177104555</v>
+        <v>6.124325410081432E-05</v>
       </c>
       <c r="T19">
-        <v>0.0003348035177104555</v>
+        <v>6.124325410081432E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>29.6923281340858</v>
+        <v>0.15088</v>
       </c>
       <c r="H20">
-        <v>29.6923281340858</v>
+        <v>0.45264</v>
       </c>
       <c r="I20">
-        <v>0.2564458911893998</v>
+        <v>0.001047029602416462</v>
       </c>
       <c r="J20">
-        <v>0.2564458911893998</v>
+        <v>0.001047029602416462</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N20">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q20">
-        <v>2168.397568280614</v>
+        <v>14.30340151888</v>
       </c>
       <c r="R20">
-        <v>2168.397568280614</v>
+        <v>128.73061366992</v>
       </c>
       <c r="S20">
-        <v>0.0355339142331653</v>
+        <v>0.0001761065649846546</v>
       </c>
       <c r="T20">
-        <v>0.0355339142331653</v>
+        <v>0.0001761065649846547</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>29.6923281340858</v>
+        <v>0.15088</v>
       </c>
       <c r="H21">
-        <v>29.6923281340858</v>
+        <v>0.45264</v>
       </c>
       <c r="I21">
-        <v>0.2564458911893998</v>
+        <v>0.001047029602416462</v>
       </c>
       <c r="J21">
-        <v>0.2564458911893998</v>
+        <v>0.001047029602416462</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N21">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q21">
-        <v>4302.111533123996</v>
+        <v>21.97436879914666</v>
       </c>
       <c r="R21">
-        <v>4302.111533123996</v>
+        <v>197.76931919232</v>
       </c>
       <c r="S21">
-        <v>0.07049946212619816</v>
+        <v>0.0002705531688959193</v>
       </c>
       <c r="T21">
-        <v>0.07049946212619816</v>
+        <v>0.0002705531688959193</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>29.6923281340858</v>
+        <v>0.15088</v>
       </c>
       <c r="H22">
-        <v>29.6923281340858</v>
+        <v>0.45264</v>
       </c>
       <c r="I22">
-        <v>0.2564458911893998</v>
+        <v>0.001047029602416462</v>
       </c>
       <c r="J22">
-        <v>0.2564458911893998</v>
+        <v>0.001047029602416462</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N22">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q22">
-        <v>2019.665002504288</v>
+        <v>10.98043845418667</v>
       </c>
       <c r="R22">
-        <v>2019.665002504288</v>
+        <v>98.82394608768</v>
       </c>
       <c r="S22">
-        <v>0.03309660738810862</v>
+        <v>0.0001351935269131452</v>
       </c>
       <c r="T22">
-        <v>0.03309660738810862</v>
+        <v>0.0001351935269131452</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>29.6923281340858</v>
+        <v>0.15088</v>
       </c>
       <c r="H23">
-        <v>29.6923281340858</v>
+        <v>0.45264</v>
       </c>
       <c r="I23">
-        <v>0.2564458911893998</v>
+        <v>0.001047029602416462</v>
       </c>
       <c r="J23">
-        <v>0.2564458911893998</v>
+        <v>0.001047029602416462</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N23">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q23">
-        <v>2266.903993526604</v>
+        <v>11.52513527093333</v>
       </c>
       <c r="R23">
-        <v>2266.903993526604</v>
+        <v>103.7262174384</v>
       </c>
       <c r="S23">
-        <v>0.03714815643547611</v>
+        <v>0.000141899951621192</v>
       </c>
       <c r="T23">
-        <v>0.03714815643547611</v>
+        <v>0.000141899951621192</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>29.6923281340858</v>
+        <v>0.15088</v>
       </c>
       <c r="H24">
-        <v>29.6923281340858</v>
+        <v>0.45264</v>
       </c>
       <c r="I24">
-        <v>0.2564458911893998</v>
+        <v>0.001047029602416462</v>
       </c>
       <c r="J24">
-        <v>0.2564458911893998</v>
+        <v>0.001047029602416462</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N24">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O24">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P24">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q24">
-        <v>1692.810649370838</v>
+        <v>8.779237359679998</v>
       </c>
       <c r="R24">
-        <v>1692.810649370838</v>
+        <v>79.01313623711999</v>
       </c>
       <c r="S24">
-        <v>0.02774038732916891</v>
+        <v>0.0001080918642014921</v>
       </c>
       <c r="T24">
-        <v>0.02774038732916891</v>
+        <v>0.0001080918642014922</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.15088</v>
+      </c>
+      <c r="H25">
+        <v>0.45264</v>
+      </c>
+      <c r="I25">
+        <v>0.001047029602416462</v>
+      </c>
+      <c r="J25">
+        <v>0.001047029602416462</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>115.8358916666667</v>
+      </c>
+      <c r="N25">
+        <v>347.5076749999999</v>
+      </c>
+      <c r="O25">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="P25">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="Q25">
+        <v>17.47731933466666</v>
+      </c>
+      <c r="R25">
+        <v>157.295874012</v>
+      </c>
+      <c r="S25">
+        <v>0.0002151845258000589</v>
+      </c>
+      <c r="T25">
+        <v>0.0002151845258000589</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.2238356666666666</v>
+      </c>
+      <c r="H26">
+        <v>0.6715069999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.001553304407983985</v>
+      </c>
+      <c r="J26">
+        <v>0.001553304407983985</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>94.799851</v>
+      </c>
+      <c r="N26">
+        <v>284.399553</v>
+      </c>
+      <c r="O26">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="P26">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="Q26">
+        <v>21.21958784848566</v>
+      </c>
+      <c r="R26">
+        <v>190.976290636371</v>
+      </c>
+      <c r="S26">
+        <v>0.0002612601430124392</v>
+      </c>
+      <c r="T26">
+        <v>0.0002612601430124392</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.2238356666666666</v>
+      </c>
+      <c r="H27">
+        <v>0.6715069999999999</v>
+      </c>
+      <c r="I27">
+        <v>0.001553304407983985</v>
+      </c>
+      <c r="J27">
+        <v>0.001553304407983985</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>145.6413626666667</v>
+      </c>
+      <c r="N27">
+        <v>436.924088</v>
+      </c>
+      <c r="O27">
+        <v>0.2584006873076977</v>
+      </c>
+      <c r="P27">
+        <v>0.2584006873076978</v>
+      </c>
+      <c r="Q27">
+        <v>32.5997315067351</v>
+      </c>
+      <c r="R27">
+        <v>293.3975835606159</v>
+      </c>
+      <c r="S27">
+        <v>0.0004013749266211383</v>
+      </c>
+      <c r="T27">
+        <v>0.0004013749266211383</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.2238356666666666</v>
+      </c>
+      <c r="H28">
+        <v>0.6715069999999999</v>
+      </c>
+      <c r="I28">
+        <v>0.001553304407983985</v>
+      </c>
+      <c r="J28">
+        <v>0.001553304407983985</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>72.77597066666667</v>
+      </c>
+      <c r="N28">
+        <v>218.327912</v>
+      </c>
+      <c r="O28">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="P28">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="Q28">
+        <v>16.28985791148711</v>
+      </c>
+      <c r="R28">
+        <v>146.608721203384</v>
+      </c>
+      <c r="S28">
+        <v>0.0002005642446024774</v>
+      </c>
+      <c r="T28">
+        <v>0.0002005642446024774</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.2238356666666666</v>
+      </c>
+      <c r="H29">
+        <v>0.6715069999999999</v>
+      </c>
+      <c r="I29">
+        <v>0.001553304407983985</v>
+      </c>
+      <c r="J29">
+        <v>0.001553304407983985</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>76.38610333333334</v>
+      </c>
+      <c r="N29">
+        <v>229.15831</v>
+      </c>
+      <c r="O29">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="P29">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="Q29">
+        <v>17.09793436368555</v>
+      </c>
+      <c r="R29">
+        <v>153.88140927317</v>
+      </c>
+      <c r="S29">
+        <v>0.0002105134561976223</v>
+      </c>
+      <c r="T29">
+        <v>0.0002105134561976223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.2238356666666666</v>
+      </c>
+      <c r="H30">
+        <v>0.6715069999999999</v>
+      </c>
+      <c r="I30">
+        <v>0.001553304407983985</v>
+      </c>
+      <c r="J30">
+        <v>0.001553304407983985</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>58.18688599999999</v>
+      </c>
+      <c r="N30">
+        <v>174.560658</v>
+      </c>
+      <c r="O30">
+        <v>0.10323668399826</v>
+      </c>
+      <c r="P30">
+        <v>0.1032366839982601</v>
+      </c>
+      <c r="Q30">
+        <v>13.02430041906733</v>
+      </c>
+      <c r="R30">
+        <v>117.218703771606</v>
+      </c>
+      <c r="S30">
+        <v>0.0001603579963201471</v>
+      </c>
+      <c r="T30">
+        <v>0.0001603579963201471</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.2238356666666666</v>
+      </c>
+      <c r="H31">
+        <v>0.6715069999999999</v>
+      </c>
+      <c r="I31">
+        <v>0.001553304407983985</v>
+      </c>
+      <c r="J31">
+        <v>0.001553304407983985</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>115.8358916666667</v>
+      </c>
+      <c r="N31">
+        <v>347.5076749999999</v>
+      </c>
+      <c r="O31">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="P31">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="Q31">
+        <v>25.9282040351361</v>
+      </c>
+      <c r="R31">
+        <v>233.3538363162249</v>
+      </c>
+      <c r="S31">
+        <v>0.0003192336412301612</v>
+      </c>
+      <c r="T31">
+        <v>0.0003192336412301612</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>36.42067833333333</v>
+      </c>
+      <c r="H32">
+        <v>109.262035</v>
+      </c>
+      <c r="I32">
+        <v>0.2527407764785781</v>
+      </c>
+      <c r="J32">
+        <v>0.252740776478578</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>94.799851</v>
+      </c>
+      <c r="N32">
+        <v>284.399553</v>
+      </c>
+      <c r="O32">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="P32">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="Q32">
+        <v>3452.674879318929</v>
+      </c>
+      <c r="R32">
+        <v>31074.07391387036</v>
+      </c>
+      <c r="S32">
+        <v>0.04251007791419917</v>
+      </c>
+      <c r="T32">
+        <v>0.04251007791419916</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>36.42067833333333</v>
+      </c>
+      <c r="H33">
+        <v>109.262035</v>
+      </c>
+      <c r="I33">
+        <v>0.2527407764785781</v>
+      </c>
+      <c r="J33">
+        <v>0.252740776478578</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>145.6413626666667</v>
+      </c>
+      <c r="N33">
+        <v>436.924088</v>
+      </c>
+      <c r="O33">
+        <v>0.2584006873076977</v>
+      </c>
+      <c r="P33">
+        <v>0.2584006873076978</v>
+      </c>
+      <c r="Q33">
+        <v>5304.357221711009</v>
+      </c>
+      <c r="R33">
+        <v>47739.21499539907</v>
+      </c>
+      <c r="S33">
+        <v>0.06530839035274577</v>
+      </c>
+      <c r="T33">
+        <v>0.06530839035274577</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>36.42067833333333</v>
+      </c>
+      <c r="H34">
+        <v>109.262035</v>
+      </c>
+      <c r="I34">
+        <v>0.2527407764785781</v>
+      </c>
+      <c r="J34">
+        <v>0.252740776478578</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>72.77597066666667</v>
+      </c>
+      <c r="N34">
+        <v>218.327912</v>
+      </c>
+      <c r="O34">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="P34">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="Q34">
+        <v>2650.550218046769</v>
+      </c>
+      <c r="R34">
+        <v>23854.95196242092</v>
+      </c>
+      <c r="S34">
+        <v>0.03263414605284003</v>
+      </c>
+      <c r="T34">
+        <v>0.03263414605284003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>29.6923281340858</v>
-      </c>
-      <c r="H25">
-        <v>29.6923281340858</v>
-      </c>
-      <c r="I25">
-        <v>0.2564458911893998</v>
-      </c>
-      <c r="J25">
-        <v>0.2564458911893998</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>107.748102341015</v>
-      </c>
-      <c r="N25">
-        <v>107.748102341015</v>
-      </c>
-      <c r="O25">
-        <v>0.2044383063972043</v>
-      </c>
-      <c r="P25">
-        <v>0.2044383063972043</v>
-      </c>
-      <c r="Q25">
-        <v>3199.292010534476</v>
-      </c>
-      <c r="R25">
-        <v>3199.292010534476</v>
-      </c>
-      <c r="S25">
-        <v>0.05242736367728262</v>
-      </c>
-      <c r="T25">
-        <v>0.05242736367728262</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>36.42067833333333</v>
+      </c>
+      <c r="H35">
+        <v>109.262035</v>
+      </c>
+      <c r="I35">
+        <v>0.2527407764785781</v>
+      </c>
+      <c r="J35">
+        <v>0.252740776478578</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>76.38610333333334</v>
+      </c>
+      <c r="N35">
+        <v>229.15831</v>
+      </c>
+      <c r="O35">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="P35">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="Q35">
+        <v>2782.033698640095</v>
+      </c>
+      <c r="R35">
+        <v>25038.30328776085</v>
+      </c>
+      <c r="S35">
+        <v>0.03425299902910257</v>
+      </c>
+      <c r="T35">
+        <v>0.03425299902910257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>36.42067833333333</v>
+      </c>
+      <c r="H36">
+        <v>109.262035</v>
+      </c>
+      <c r="I36">
+        <v>0.2527407764785781</v>
+      </c>
+      <c r="J36">
+        <v>0.252740776478578</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>58.18688599999999</v>
+      </c>
+      <c r="N36">
+        <v>174.560658</v>
+      </c>
+      <c r="O36">
+        <v>0.10323668399826</v>
+      </c>
+      <c r="P36">
+        <v>0.1032366839982601</v>
+      </c>
+      <c r="Q36">
+        <v>2119.205858224337</v>
+      </c>
+      <c r="R36">
+        <v>19072.85272401903</v>
+      </c>
+      <c r="S36">
+        <v>0.02609211967479384</v>
+      </c>
+      <c r="T36">
+        <v>0.02609211967479384</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>36.42067833333333</v>
+      </c>
+      <c r="H37">
+        <v>109.262035</v>
+      </c>
+      <c r="I37">
+        <v>0.2527407764785781</v>
+      </c>
+      <c r="J37">
+        <v>0.252740776478578</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>115.8358916666667</v>
+      </c>
+      <c r="N37">
+        <v>347.5076749999999</v>
+      </c>
+      <c r="O37">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="P37">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="Q37">
+        <v>4218.821749846514</v>
+      </c>
+      <c r="R37">
+        <v>37969.39574861862</v>
+      </c>
+      <c r="S37">
+        <v>0.05194304345489671</v>
+      </c>
+      <c r="T37">
+        <v>0.0519430434548967</v>
       </c>
     </row>
   </sheetData>
